--- a/data_input_files_scripts/evaluation_for_cse104_mid_q2.xlsx
+++ b/data_input_files_scripts/evaluation_for_cse104_mid_q2.xlsx
@@ -28,7 +28,7 @@
     <t>Obtain Marks</t>
   </si>
   <si>
-    <t>Midterm_Q2</t>
+    <t>CSE104_Mid_Q2</t>
   </si>
 </sst>
 </file>
@@ -411,10 +411,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20001</v>
+        <v>210000</v>
       </c>
       <c r="C2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20001</v>
+        <v>210001</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -445,10 +445,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20001</v>
+        <v>210002</v>
       </c>
       <c r="C4">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -462,10 +462,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20001</v>
+        <v>210003</v>
       </c>
       <c r="C5">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -479,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20001</v>
+        <v>210004</v>
       </c>
       <c r="C6">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -496,10 +496,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20001</v>
+        <v>210005</v>
       </c>
       <c r="C7">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -513,10 +513,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20001</v>
+        <v>210006</v>
       </c>
       <c r="C8">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -530,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20001</v>
+        <v>210007</v>
       </c>
       <c r="C9">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -547,10 +547,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20001</v>
+        <v>210008</v>
       </c>
       <c r="C10">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -564,10 +564,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20001</v>
+        <v>210009</v>
       </c>
       <c r="C11">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -581,10 +581,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20001</v>
+        <v>210010</v>
       </c>
       <c r="C12">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20001</v>
+        <v>210011</v>
       </c>
       <c r="C13">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20001</v>
+        <v>210012</v>
       </c>
       <c r="C14">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20001</v>
+        <v>210013</v>
       </c>
       <c r="C15">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -649,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20001</v>
+        <v>210014</v>
       </c>
       <c r="C16">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -666,10 +666,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20001</v>
+        <v>210015</v>
       </c>
       <c r="C17">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -683,10 +683,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20001</v>
+        <v>210016</v>
       </c>
       <c r="C18">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -700,10 +700,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20001</v>
+        <v>210017</v>
       </c>
       <c r="C19">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -717,10 +717,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20001</v>
+        <v>210018</v>
       </c>
       <c r="C20">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -734,10 +734,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20001</v>
+        <v>210019</v>
       </c>
       <c r="C21">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -751,10 +751,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20001</v>
+        <v>210020</v>
       </c>
       <c r="C22">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -768,10 +768,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20001</v>
+        <v>210021</v>
       </c>
       <c r="C23">
-        <v>2001</v>
+        <v>2021</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -785,10 +785,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20001</v>
+        <v>210022</v>
       </c>
       <c r="C24">
-        <v>2001</v>
+        <v>2022</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -802,10 +802,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20001</v>
+        <v>210023</v>
       </c>
       <c r="C25">
-        <v>2001</v>
+        <v>2023</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -819,10 +819,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>20001</v>
+        <v>210024</v>
       </c>
       <c r="C26">
-        <v>2001</v>
+        <v>2024</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -836,10 +836,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>20001</v>
+        <v>210025</v>
       </c>
       <c r="C27">
-        <v>2001</v>
+        <v>2025</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -853,10 +853,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>20001</v>
+        <v>210026</v>
       </c>
       <c r="C28">
-        <v>2001</v>
+        <v>2026</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -870,10 +870,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>20001</v>
+        <v>210027</v>
       </c>
       <c r="C29">
-        <v>2001</v>
+        <v>2027</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -887,10 +887,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>20001</v>
+        <v>210028</v>
       </c>
       <c r="C30">
-        <v>2001</v>
+        <v>2028</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -904,10 +904,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>20001</v>
+        <v>210029</v>
       </c>
       <c r="C31">
-        <v>2001</v>
+        <v>2029</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -921,10 +921,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>20001</v>
+        <v>210030</v>
       </c>
       <c r="C32">
-        <v>2001</v>
+        <v>2030</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -938,10 +938,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>20001</v>
+        <v>210031</v>
       </c>
       <c r="C33">
-        <v>2001</v>
+        <v>2031</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -955,10 +955,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>20001</v>
+        <v>210032</v>
       </c>
       <c r="C34">
-        <v>2001</v>
+        <v>2032</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -972,10 +972,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>20001</v>
+        <v>210033</v>
       </c>
       <c r="C35">
-        <v>2001</v>
+        <v>2033</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -989,10 +989,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>20001</v>
+        <v>210034</v>
       </c>
       <c r="C36">
-        <v>2001</v>
+        <v>2034</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -1006,10 +1006,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>20001</v>
+        <v>210035</v>
       </c>
       <c r="C37">
-        <v>2001</v>
+        <v>2035</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -1023,10 +1023,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>20001</v>
+        <v>210036</v>
       </c>
       <c r="C38">
-        <v>2001</v>
+        <v>2036</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1040,10 +1040,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>20001</v>
+        <v>210037</v>
       </c>
       <c r="C39">
-        <v>2001</v>
+        <v>2037</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -1057,10 +1057,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>20001</v>
+        <v>210038</v>
       </c>
       <c r="C40">
-        <v>2001</v>
+        <v>2038</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -1074,10 +1074,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>20001</v>
+        <v>210039</v>
       </c>
       <c r="C41">
-        <v>2001</v>
+        <v>2039</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -1091,10 +1091,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>20001</v>
+        <v>210040</v>
       </c>
       <c r="C42">
-        <v>2001</v>
+        <v>2040</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -1108,10 +1108,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>20001</v>
+        <v>210041</v>
       </c>
       <c r="C43">
-        <v>2001</v>
+        <v>2041</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -1125,10 +1125,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>20001</v>
+        <v>210042</v>
       </c>
       <c r="C44">
-        <v>2001</v>
+        <v>2042</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -1142,10 +1142,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>20001</v>
+        <v>210043</v>
       </c>
       <c r="C45">
-        <v>2001</v>
+        <v>2043</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -1159,10 +1159,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>20001</v>
+        <v>210044</v>
       </c>
       <c r="C46">
-        <v>2001</v>
+        <v>2044</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -1176,10 +1176,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>20001</v>
+        <v>210045</v>
       </c>
       <c r="C47">
-        <v>2001</v>
+        <v>2045</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -1193,10 +1193,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>20001</v>
+        <v>210046</v>
       </c>
       <c r="C48">
-        <v>2001</v>
+        <v>2046</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -1210,10 +1210,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>20001</v>
+        <v>210047</v>
       </c>
       <c r="C49">
-        <v>2001</v>
+        <v>2047</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -1227,10 +1227,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>20001</v>
+        <v>210048</v>
       </c>
       <c r="C50">
-        <v>2001</v>
+        <v>2048</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -1244,10 +1244,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>20001</v>
+        <v>210049</v>
       </c>
       <c r="C51">
-        <v>2001</v>
+        <v>2049</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -1261,10 +1261,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>20001</v>
+        <v>210050</v>
       </c>
       <c r="C52">
-        <v>2001</v>
+        <v>2050</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -1278,10 +1278,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>20001</v>
+        <v>210051</v>
       </c>
       <c r="C53">
-        <v>2001</v>
+        <v>2051</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -1295,10 +1295,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>20001</v>
+        <v>210052</v>
       </c>
       <c r="C54">
-        <v>2001</v>
+        <v>2052</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -1312,10 +1312,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>20001</v>
+        <v>210053</v>
       </c>
       <c r="C55">
-        <v>2001</v>
+        <v>2053</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -1329,10 +1329,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>20001</v>
+        <v>210054</v>
       </c>
       <c r="C56">
-        <v>2001</v>
+        <v>2054</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -1346,10 +1346,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>20001</v>
+        <v>210055</v>
       </c>
       <c r="C57">
-        <v>2001</v>
+        <v>2055</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -1363,10 +1363,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>20001</v>
+        <v>210056</v>
       </c>
       <c r="C58">
-        <v>2001</v>
+        <v>2056</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -1380,10 +1380,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>20001</v>
+        <v>210057</v>
       </c>
       <c r="C59">
-        <v>2001</v>
+        <v>2057</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -1397,10 +1397,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>20001</v>
+        <v>210058</v>
       </c>
       <c r="C60">
-        <v>2001</v>
+        <v>2058</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -1414,10 +1414,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>20001</v>
+        <v>210059</v>
       </c>
       <c r="C61">
-        <v>2001</v>
+        <v>2059</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -1431,10 +1431,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>20001</v>
+        <v>210060</v>
       </c>
       <c r="C62">
-        <v>2001</v>
+        <v>2060</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -1448,10 +1448,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>20001</v>
+        <v>210061</v>
       </c>
       <c r="C63">
-        <v>2001</v>
+        <v>2061</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -1465,10 +1465,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>20001</v>
+        <v>210062</v>
       </c>
       <c r="C64">
-        <v>2001</v>
+        <v>2062</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -1482,10 +1482,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>20001</v>
+        <v>210063</v>
       </c>
       <c r="C65">
-        <v>2001</v>
+        <v>2063</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -1499,10 +1499,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>20001</v>
+        <v>210064</v>
       </c>
       <c r="C66">
-        <v>2001</v>
+        <v>2064</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -1516,10 +1516,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>20001</v>
+        <v>210065</v>
       </c>
       <c r="C67">
-        <v>2001</v>
+        <v>2065</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -1533,10 +1533,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>20001</v>
+        <v>210066</v>
       </c>
       <c r="C68">
-        <v>2001</v>
+        <v>2066</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -1550,10 +1550,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>20001</v>
+        <v>210067</v>
       </c>
       <c r="C69">
-        <v>2001</v>
+        <v>2067</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -1567,10 +1567,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>20001</v>
+        <v>210068</v>
       </c>
       <c r="C70">
-        <v>2001</v>
+        <v>2068</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -1584,10 +1584,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>20001</v>
+        <v>210069</v>
       </c>
       <c r="C71">
-        <v>2001</v>
+        <v>2069</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -1601,10 +1601,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>20001</v>
+        <v>210070</v>
       </c>
       <c r="C72">
-        <v>2001</v>
+        <v>2070</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -1618,10 +1618,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>20001</v>
+        <v>210071</v>
       </c>
       <c r="C73">
-        <v>2001</v>
+        <v>2071</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -1635,10 +1635,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>20001</v>
+        <v>210072</v>
       </c>
       <c r="C74">
-        <v>2001</v>
+        <v>2072</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -1652,10 +1652,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>20001</v>
+        <v>210073</v>
       </c>
       <c r="C75">
-        <v>2001</v>
+        <v>2073</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -1669,10 +1669,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>20001</v>
+        <v>210074</v>
       </c>
       <c r="C76">
-        <v>2001</v>
+        <v>2074</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -1686,10 +1686,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>20001</v>
+        <v>210075</v>
       </c>
       <c r="C77">
-        <v>2001</v>
+        <v>2075</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -1703,10 +1703,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>20001</v>
+        <v>210076</v>
       </c>
       <c r="C78">
-        <v>2001</v>
+        <v>2076</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -1720,10 +1720,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>20001</v>
+        <v>210077</v>
       </c>
       <c r="C79">
-        <v>2001</v>
+        <v>2077</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -1737,10 +1737,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>20001</v>
+        <v>210078</v>
       </c>
       <c r="C80">
-        <v>2001</v>
+        <v>2078</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -1754,10 +1754,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>20001</v>
+        <v>210079</v>
       </c>
       <c r="C81">
-        <v>2001</v>
+        <v>2079</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -1771,10 +1771,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>20001</v>
+        <v>210080</v>
       </c>
       <c r="C82">
-        <v>2001</v>
+        <v>2080</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -1788,10 +1788,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>20001</v>
+        <v>210081</v>
       </c>
       <c r="C83">
-        <v>2001</v>
+        <v>2081</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -1805,10 +1805,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>20001</v>
+        <v>210082</v>
       </c>
       <c r="C84">
-        <v>2001</v>
+        <v>2082</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -1822,10 +1822,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>20001</v>
+        <v>210083</v>
       </c>
       <c r="C85">
-        <v>2001</v>
+        <v>2083</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
@@ -1839,10 +1839,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>20001</v>
+        <v>210084</v>
       </c>
       <c r="C86">
-        <v>2001</v>
+        <v>2084</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -1856,10 +1856,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>20001</v>
+        <v>210085</v>
       </c>
       <c r="C87">
-        <v>2001</v>
+        <v>2085</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -1873,10 +1873,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>20001</v>
+        <v>210086</v>
       </c>
       <c r="C88">
-        <v>2001</v>
+        <v>2086</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -1890,10 +1890,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>20001</v>
+        <v>210087</v>
       </c>
       <c r="C89">
-        <v>2001</v>
+        <v>2087</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
